--- a/oes-core/src/main/resources/excel/analysis.xlsx
+++ b/oes-core/src/main/resources/excel/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chachae/codes/Java/git/OES/oes-core/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8CC2B0-1899-EF4E-98D3-9F95999E3E19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00031285-A61B-7943-BB5C-CD4FE1365548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>考生单位</t>
   </si>
@@ -123,6 +123,66 @@
   </si>
   <si>
     <t>{paperName}考试分析表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{courseTeacherName}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{aNum}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{bNum}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{cNum}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{dNum}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{eNum}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{aScale}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{bScale}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{cScale}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{dScale}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{eScale}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{max}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{min}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{avg}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{passScale}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -244,23 +304,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +600,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -551,16 +611,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="40" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -616,30 +676,30 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -661,11 +721,11 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
-        <v>28</v>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -677,19 +737,19 @@
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2">
-        <v>36</v>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="2">
-        <v>96</v>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -697,19 +757,19 @@
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2">
-        <v>24</v>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="2">
-        <v>97</v>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -717,19 +777,19 @@
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8</v>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="2">
-        <v>50</v>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -737,19 +797,19 @@
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4</v>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="2">
-        <v>81.48</v>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
